--- a/Templates/Issues Log.xlsx
+++ b/Templates/Issues Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Escritorio de Projetos\Modelos\04-Controle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judah/gerenciaDeProjetos/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D53898-EEF3-CB47-8F90-0049053F9D73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="11340" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14600" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="8" r:id="rId1"/>
@@ -22,18 +23,18 @@
     <definedName name="AS" hidden="1">{"'TG'!$A$1:$L$37"}</definedName>
     <definedName name="E" hidden="1">{TRUE,TRUE,-1.25,-15.5,604.5,369,FALSE,FALSE,TRUE,TRUE,0,1,#N/A,91,#N/A,20.5555555555556,24.8571428571429,1,FALSE,FALSE,3,TRUE,1,FALSE,80,"Swvu.summary3.","ACwvu.summary3.",#N/A,FALSE,FALSE,0.5,0.5,0.5,0.5,2,"&amp;F","&amp;A&amp;RPage &amp;P",TRUE,FALSE,FALSE,FALSE,1,50,#N/A,#N/A,"=R104C1:R153C31",FALSE,#N/A,#N/A,FALSE,FALSE,TRUE,1,600,600,FALSE,FALSE,TRUE,TRUE,TRUE}</definedName>
     <definedName name="Impacto">Param!$F$5:$F$9</definedName>
-    <definedName name="Prioridade">Param!$M$5:$M$9</definedName>
+    <definedName name="Prioridade">Param!$N$5:$N$9</definedName>
     <definedName name="Status">Param!$H$5:$H$8</definedName>
     <definedName name="t" hidden="1">{"'TG'!$A$1:$L$37"}</definedName>
     <definedName name="Urgencia">Param!$E$5:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Data de Identificação</t>
   </si>
@@ -253,12 +254,18 @@
   </si>
   <si>
     <t>No SR do projeto e no SR Consolidado</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Additional information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -724,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -946,17 +953,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -991,9 +987,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1045,7 +1039,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1100,7 +1094,6 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,9 +1101,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,6 +1117,44 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="20" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="38" borderId="21" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1134,44 +1162,6 @@
     <xf numFmtId="0" fontId="21" fillId="39" borderId="21" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1192,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,61 +1209,65 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 - 20%" xfId="2"/>
-    <cellStyle name="Accent1 - 40%" xfId="3"/>
-    <cellStyle name="Accent1 - 60%" xfId="4"/>
+    <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 - 20%" xfId="6"/>
-    <cellStyle name="Accent2 - 40%" xfId="7"/>
-    <cellStyle name="Accent2 - 60%" xfId="8"/>
+    <cellStyle name="Accent2 - 20%" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Accent3" xfId="9" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 - 20%" xfId="10"/>
-    <cellStyle name="Accent3 - 40%" xfId="11"/>
-    <cellStyle name="Accent3 - 60%" xfId="12"/>
+    <cellStyle name="Accent3 - 20%" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Accent4" xfId="13" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 - 20%" xfId="14"/>
-    <cellStyle name="Accent4 - 40%" xfId="15"/>
-    <cellStyle name="Accent4 - 60%" xfId="16"/>
+    <cellStyle name="Accent4 - 20%" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Accent5" xfId="17" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 - 20%" xfId="18"/>
-    <cellStyle name="Accent5 - 40%" xfId="19"/>
-    <cellStyle name="Accent5 - 60%" xfId="20"/>
+    <cellStyle name="Accent5 - 20%" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Accent6" xfId="21" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 - 20%" xfId="22"/>
-    <cellStyle name="Accent6 - 40%" xfId="23"/>
-    <cellStyle name="Accent6 - 60%" xfId="24"/>
+    <cellStyle name="Accent6 - 20%" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Emphasis 1" xfId="28"/>
-    <cellStyle name="Emphasis 2" xfId="29"/>
-    <cellStyle name="Emphasis 3" xfId="30"/>
+    <cellStyle name="Emphasis 1" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Emphasis 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Emphasis 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Good" xfId="31" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="32" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="33" builtinId="17" customBuiltin="1"/>
@@ -1275,10 +1277,10 @@
     <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="44"/>
+    <cellStyle name="Normal 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Sheet Title" xfId="41"/>
+    <cellStyle name="Sheet Title" xfId="41" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1583,6 +1585,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1714,6 +1721,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1749,6 +1773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1921,357 +1962,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="36" customWidth="1"/>
-    <col min="5" max="10" width="14.7109375" style="36" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="36" customWidth="1"/>
-    <col min="12" max="12" width="9" style="36" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" style="36" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="36" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="0" style="36" hidden="1"/>
+    <col min="1" max="1" width="2.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="34" customWidth="1"/>
+    <col min="5" max="10" width="14.6640625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9" style="34" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="0" style="34" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="34" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="9" style="34" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="0" style="34" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="68"/>
-    </row>
-    <row r="2" spans="1:10" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:10" s="60" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65"/>
+      <c r="B2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="63" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="52">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50">
         <f>C6+1</f>
         <v>2</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52">
+      <c r="G7" s="47"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="50">
         <v>3</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="52">
+      <c r="G8" s="47"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="50">
         <v>4</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:10" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="23" x14ac:dyDescent="0.2">
+      <c r="B15" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:10" ht="23" x14ac:dyDescent="0.2">
+      <c r="B22" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+    </row>
+    <row r="23" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="39">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+    </row>
+    <row r="24" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="39">
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="25" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="37">
         <v>2</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="39">
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+    </row>
+    <row r="26" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="37">
         <v>3</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:10" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E23:J23"/>
@@ -2286,10 +2327,10 @@
     <mergeCell ref="B22:J22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D9" location="Param!A1" display="Paramêtros"/>
-    <hyperlink ref="D6" location="Capa!A1" display="Instruções"/>
-    <hyperlink ref="D8" location="Acoes!A1" display="Ações"/>
-    <hyperlink ref="D7" location="Issues!A1" display="Riscos &amp; Problemas"/>
+    <hyperlink ref="D9" location="Param!A1" display="Paramêtros" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" location="Capa!A1" display="Instruções" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" location="Acoes!A1" display="Ações" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" location="Issues!A1" display="Riscos &amp; Problemas" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2304,37 +2345,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
     <col min="6" max="6" width="31" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="13" width="8.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="7.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="6"/>
+    <col min="12" max="13" width="8.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2342,51 +2383,51 @@
       <c r="I1" s="5"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="2:15" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:15" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2414,7 +2455,7 @@
       </c>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <f>B3+1</f>
         <v>2</v>
@@ -2441,7 +2482,7 @@
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <f>B4+1</f>
         <v>3</v>
@@ -2468,7 +2509,7 @@
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <f t="shared" ref="B6:B25" si="2">B5+1</f>
         <v>4</v>
@@ -2495,7 +2536,7 @@
       </c>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2522,7 +2563,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2549,7 +2590,7 @@
       </c>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2576,7 +2617,7 @@
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2603,7 +2644,7 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2630,7 +2671,7 @@
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2657,7 +2698,7 @@
       </c>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2684,7 +2725,7 @@
       </c>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2711,7 +2752,7 @@
       </c>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2738,7 +2779,7 @@
       </c>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2765,7 +2806,7 @@
       </c>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2792,7 +2833,7 @@
       </c>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2819,7 +2860,7 @@
       </c>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2846,7 +2887,7 @@
       </c>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2873,7 +2914,7 @@
       </c>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2900,7 +2941,7 @@
       </c>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2927,7 +2968,7 @@
       </c>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2954,7 +2995,7 @@
       </c>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2981,7 +3022,7 @@
       </c>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -3009,7 +3050,7 @@
       <c r="O25" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:O7"/>
+  <autoFilter ref="B2:O7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M4:M7">
     <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="equal">
@@ -3089,13 +3130,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Urgencia</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H25" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Impacto</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M25" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -3112,58 +3153,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="6" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="18.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="20.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" style="6"/>
+    <col min="10" max="10" width="18.83203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:10" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -3179,7 +3220,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="13" t="str">
         <f>IF(B4=0,"",VLOOKUP(B4,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3193,7 +3234,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="26"/>
       <c r="C5" s="13" t="str">
         <f>IF(B5=0,"",VLOOKUP(B5,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3207,7 +3248,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
       <c r="C6" s="13" t="str">
         <f>IF(B6=0,"",VLOOKUP(B6,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3221,7 +3262,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="26"/>
       <c r="C7" s="13" t="str">
         <f>IF(B7=0,"",VLOOKUP(B7,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3235,7 +3276,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="13" t="str">
         <f>IF(B8=0,"",VLOOKUP(B8,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3249,7 +3290,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
       <c r="C9" s="13" t="str">
         <f>IF(B9=0,"",VLOOKUP(B9,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3263,7 +3304,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="26"/>
       <c r="C10" s="13" t="str">
         <f>IF(B10=0,"",VLOOKUP(B10,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3277,7 +3318,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="26"/>
       <c r="C11" s="13" t="str">
         <f>IF(B11=0,"",VLOOKUP(B11,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3291,7 +3332,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" s="13" t="str">
         <f>IF(B12=0,"",VLOOKUP(B12,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3305,7 +3346,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
       <c r="C13" s="13" t="str">
         <f>IF(B13=0,"",VLOOKUP(B13,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3319,7 +3360,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="13" t="str">
         <f>IF(B14=0,"",VLOOKUP(B14,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3333,7 +3374,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="13" t="str">
         <f>IF(B15=0,"",VLOOKUP(B15,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3347,7 +3388,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="13" t="str">
         <f>IF(B16=0,"",VLOOKUP(B16,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3361,7 +3402,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="13" t="str">
         <f>IF(B17=0,"",VLOOKUP(B17,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3375,7 +3416,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="13" t="str">
         <f>IF(B18=0,"",VLOOKUP(B18,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3389,7 +3430,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="26"/>
       <c r="C19" s="13" t="str">
         <f>IF(B19=0,"",VLOOKUP(B19,Issues!$B$3:$F$7,5,FALSE))</f>
@@ -3403,27 +3444,27 @@
       <c r="I19" s="8"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D20" s="18"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21" s="18"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22" s="18"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23" s="18"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J7"/>
+  <autoFilter ref="B2:J7" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H20:H24">
     <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
@@ -3464,16 +3505,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D20:D24">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D20:D24" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$D$29:$D$29</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H20:H24">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H20:H24" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>Prioridade</formula1>
     </dataValidation>
   </dataValidations>
@@ -3509,94 +3550,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="6"/>
+    <col min="3" max="3" width="9.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="17" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="9" max="9" width="12.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="77" t="s">
+    <row r="2" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="8"/>
@@ -3605,19 +3650,22 @@
         <v>40</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="M4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
@@ -3639,11 +3687,12 @@
       <c r="J5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="K5" s="72"/>
+      <c r="N5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="21"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3663,11 +3712,12 @@
       <c r="J6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="72"/>
+      <c r="N6" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3684,16 +3734,17 @@
       <c r="I7" s="20">
         <v>2</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3709,13 +3760,14 @@
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3729,96 +3781,97 @@
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-    </row>
-    <row r="16" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+    </row>
+    <row r="16" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-    </row>
-    <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+    </row>
+    <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-    </row>
-    <row r="18" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+    </row>
+    <row r="18" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C2:K2"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B15:N15"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
